--- a/SubTerm.xlsx
+++ b/SubTerm.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lohith_R\Documents\LatestCode\react-magneto-v1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA382D85-F96A-4671-B72A-065230EAC158}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3AC9DDEF-F2AD-48B4-9BC0-505033BA3523}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>Components</t>
   </si>
@@ -193,13 +187,19 @@
   </si>
   <si>
     <t>stickyHeader</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>materialUi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -342,7 +342,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -536,23 +536,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0872BF44-E388-4A22-9760-4497AA319684}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -602,15 +606,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -639,7 +649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -668,7 +678,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -697,7 +707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -726,7 +736,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -764,7 +774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -799,7 +809,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -834,7 +844,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>51</v>
       </c>
